--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_34_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_2</t>
+          <t>model_34_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9836798062113629</v>
+        <v>0.964278748065878</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8303214755542561</v>
+        <v>0.7890807617298927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9109022281407233</v>
+        <v>0.7906812657272184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9704364233173788</v>
+        <v>0.9733431160069559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9548430314441738</v>
+        <v>0.9244108179086226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1091332110121995</v>
+        <v>0.2388681761647149</v>
       </c>
       <c r="H2" t="n">
-        <v>1.134641074266454</v>
+        <v>1.410417917505998</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2190429601734008</v>
+        <v>1.309530769970837</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05959629108804859</v>
+        <v>0.1807142766496219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1393196256307247</v>
+        <v>0.7451225233102292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3615960534377292</v>
+        <v>0.1981485363326595</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3303531610446606</v>
+        <v>0.4887414205535632</v>
       </c>
       <c r="N2" t="n">
-        <v>1.005676589143874</v>
+        <v>1.012424783281434</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3444169790356493</v>
+        <v>0.5095481546607429</v>
       </c>
       <c r="P2" t="n">
-        <v>190.43037204711</v>
+        <v>188.8636868867649</v>
       </c>
       <c r="Q2" t="n">
-        <v>303.7858237598527</v>
+        <v>302.2191385995076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_3</t>
+          <t>model_34_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9838477899050899</v>
+        <v>0.9642762347096995</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8302958401295646</v>
+        <v>0.7890664619183096</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8884164368838865</v>
+        <v>0.7906926826416156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9637972613455359</v>
+        <v>0.9734098522843038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9437151678306874</v>
+        <v>0.9244373674541245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1080099032787526</v>
+        <v>0.2388849829890538</v>
       </c>
       <c r="H3" t="n">
-        <v>1.134812498469406</v>
+        <v>1.410513540411899</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2743232907131806</v>
+        <v>1.309459343967076</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07297997039391692</v>
+        <v>0.1802618532497095</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1736516422005276</v>
+        <v>0.7448608104064794</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4349955834481487</v>
+        <v>0.2063779863641047</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3286486015165021</v>
+        <v>0.4887586142351394</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005618160033012</v>
+        <v>1.012425657492279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3426398528794525</v>
+        <v>0.5095660803129396</v>
       </c>
       <c r="P3" t="n">
-        <v>190.4510647180727</v>
+        <v>188.8635461712174</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.8065164308153</v>
+        <v>302.21899788396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_4</t>
+          <t>model_34_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9835851829129585</v>
+        <v>0.9642716815354893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8297464490559815</v>
+        <v>0.7890488308828976</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8648169667241199</v>
+        <v>0.7907060460682729</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9566095881515457</v>
+        <v>0.973483965915053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9319643991216066</v>
+        <v>0.924467114452475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1097659574443296</v>
+        <v>0.2389154300859627</v>
       </c>
       <c r="H4" t="n">
-        <v>1.13848627910817</v>
+        <v>1.410631439226882</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3323415519384294</v>
+        <v>1.309375740277895</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08746937634480832</v>
+        <v>0.17975941676185</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2099054641416189</v>
+        <v>0.7445675785198724</v>
       </c>
       <c r="L4" t="n">
-        <v>0.498612255854695</v>
+        <v>0.215516749378062</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3313094587305493</v>
+        <v>0.488789760618983</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005709501595493</v>
+        <v>1.012427241205047</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3454139882938354</v>
+        <v>0.5095985526628254</v>
       </c>
       <c r="P4" t="n">
-        <v>190.4188096789402</v>
+        <v>188.8632912773653</v>
       </c>
       <c r="Q4" t="n">
-        <v>303.7742613916829</v>
+        <v>302.218742990108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_1</t>
+          <t>model_34_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9828770975545721</v>
+        <v>0.9642644289085548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8296189962274995</v>
+        <v>0.7890270704681324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9305303767615866</v>
+        <v>0.7907213750433004</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9760266261804319</v>
+        <v>0.9735664809162565</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9644896505983022</v>
+        <v>0.924500374033026</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1145009274962923</v>
+        <v>0.238963928435669</v>
       </c>
       <c r="H5" t="n">
-        <v>1.139338556759096</v>
+        <v>1.410776951220615</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1707880185859958</v>
+        <v>1.309279839810408</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04832717569499814</v>
+        <v>0.1792000250955505</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1095575886265392</v>
+        <v>0.7442397212538088</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2794999592086716</v>
+        <v>0.2256675903814077</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3383798568122699</v>
+        <v>0.488839368745674</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005955792154931</v>
+        <v>1.012429763857894</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3527853878596366</v>
+        <v>0.5096502727101726</v>
       </c>
       <c r="P5" t="n">
-        <v>190.3343447112327</v>
+        <v>188.8628853309773</v>
       </c>
       <c r="Q5" t="n">
-        <v>303.6897964239753</v>
+        <v>302.21833704372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_5</t>
+          <t>model_34_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9830383846987838</v>
+        <v>0.9642536888978227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8288309590368363</v>
+        <v>0.7890001911188272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8412431971126895</v>
+        <v>0.7907393439104003</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9492099602890807</v>
+        <v>0.9736582188279255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9201546355899795</v>
+        <v>0.9245375785023251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1134223996202901</v>
+        <v>0.2390357469368874</v>
       </c>
       <c r="H6" t="n">
-        <v>1.144608165081638</v>
+        <v>1.410956693553187</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3902966294940063</v>
+        <v>1.309167423764846</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1023860550934232</v>
+        <v>0.1785781088073251</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2463412986680132</v>
+        <v>0.743872977134141</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5538561990421034</v>
+        <v>0.23694934544111</v>
       </c>
       <c r="M6" t="n">
-        <v>0.336782421780428</v>
+        <v>0.4889128214077511</v>
       </c>
       <c r="N6" t="n">
-        <v>1.005899692278684</v>
+        <v>1.012433499513801</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3511199467113428</v>
+        <v>0.5097268524041423</v>
       </c>
       <c r="P6" t="n">
-        <v>190.3532727593574</v>
+        <v>188.8622843389227</v>
       </c>
       <c r="Q6" t="n">
-        <v>303.7087244721</v>
+        <v>302.2177360516653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_0</t>
+          <t>model_34_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9811589665025587</v>
+        <v>0.9642383970670965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8279266495060733</v>
+        <v>0.7889669922167855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9447486934811528</v>
+        <v>0.7907600991643191</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9798294654291727</v>
+        <v>0.9737602815829812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9713969343081388</v>
+        <v>0.9245792603553025</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1259900777523721</v>
+        <v>0.2391380034793662</v>
       </c>
       <c r="H7" t="n">
-        <v>1.150655287077813</v>
+        <v>1.411178694764007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1358329112028871</v>
+        <v>1.309037575647144</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04066115080017405</v>
+        <v>0.1778861975937876</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08824703100153056</v>
+        <v>0.7434620970768699</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1848163800183708</v>
+        <v>0.249479701953836</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3549508103278145</v>
+        <v>0.4890173856616615</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006553402955632</v>
+        <v>1.012438818411445</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3700618011729406</v>
+        <v>0.5098358681748195</v>
       </c>
       <c r="P7" t="n">
-        <v>190.143104246257</v>
+        <v>188.8614289465558</v>
       </c>
       <c r="Q7" t="n">
-        <v>303.4985559589996</v>
+        <v>302.2168806592985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_6</t>
+          <t>model_34_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.982311019051289</v>
+        <v>0.9642172954057886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8276697475831735</v>
+        <v>0.788926022105906</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8183997405473817</v>
+        <v>0.7907843855196593</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9418216680634236</v>
+        <v>0.9738737966001619</v>
       </c>
       <c r="F8" t="n">
-        <v>0.908639520969876</v>
+        <v>0.92462602204426</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1182862970542979</v>
+        <v>0.2392791103856966</v>
       </c>
       <c r="H8" t="n">
-        <v>1.152373191419168</v>
+        <v>1.411452662084107</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4464562644909451</v>
+        <v>1.308885636406162</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1172798826857611</v>
+        <v>0.1771166483762552</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2818680735883531</v>
+        <v>0.7430011423912086</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6019542350183176</v>
+        <v>0.2634024466191801</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3439277497590125</v>
+        <v>0.4891616403457006</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006152689025639</v>
+        <v>1.012446158119726</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3585694660948436</v>
+        <v>0.5099862640794066</v>
       </c>
       <c r="P8" t="n">
-        <v>190.2692946937536</v>
+        <v>188.8602491650945</v>
       </c>
       <c r="Q8" t="n">
-        <v>303.6247464064962</v>
+        <v>302.2157008778372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_7</t>
+          <t>model_34_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9814762922439902</v>
+        <v>0.9641888741253054</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8263540938439673</v>
+        <v>0.788875456647595</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7966995839089577</v>
+        <v>0.7908134863940693</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9345929746181793</v>
+        <v>0.9740001257428342</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8976320784377405</v>
+        <v>0.9246787070968284</v>
       </c>
       <c r="G9" t="n">
-        <v>0.123868119058269</v>
+        <v>0.2394691636191552</v>
       </c>
       <c r="H9" t="n">
-        <v>1.161170974031268</v>
+        <v>1.411790793536666</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4998051468155707</v>
+        <v>1.308703576780179</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1318519800802653</v>
+        <v>0.1762602287120612</v>
       </c>
       <c r="K9" t="n">
-        <v>0.315828563447918</v>
+        <v>0.7424817979794245</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6439548743906437</v>
+        <v>0.2788714258302348</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3519490290628304</v>
+        <v>0.4893558660312096</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006443028784699</v>
+        <v>1.012456043782503</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3669322278649623</v>
+        <v>0.5101887583544502</v>
       </c>
       <c r="P9" t="n">
-        <v>190.1770756706716</v>
+        <v>188.858661247153</v>
       </c>
       <c r="Q9" t="n">
-        <v>303.5325273834143</v>
+        <v>302.2141129598957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_8</t>
+          <t>model_34_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9805853395366025</v>
+        <v>0.9641509624623059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8249523781823199</v>
+        <v>0.7888130564032974</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7763545918069328</v>
+        <v>0.7908471588450633</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9276196957500565</v>
+        <v>0.9741407789143975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8872480175234628</v>
+        <v>0.9247377470853185</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1298259239150302</v>
+        <v>0.2397226790841999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.170544253115012</v>
+        <v>1.412208064257611</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5498224166275543</v>
+        <v>1.308492916655417</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1459091952042755</v>
+        <v>0.1753067025548337</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3478657777555013</v>
+        <v>0.7418998096051256</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6807470070261032</v>
+        <v>0.2960477967687745</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3603136465845142</v>
+        <v>0.4896148272716013</v>
       </c>
       <c r="N10" t="n">
-        <v>1.006752925378573</v>
+        <v>1.012469230447893</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3756529444716895</v>
+        <v>0.510458744110969</v>
       </c>
       <c r="P10" t="n">
-        <v>190.0831215453166</v>
+        <v>188.8565450551305</v>
       </c>
       <c r="Q10" t="n">
-        <v>303.4385732580593</v>
+        <v>302.2119967678731</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_9</t>
+          <t>model_34_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9796741084319773</v>
+        <v>0.9641012302562725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8235155024048475</v>
+        <v>0.7887360184755251</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7574541028572219</v>
+        <v>0.7908878005325295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9209629210870027</v>
+        <v>0.9742971763527598</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8775428428170388</v>
+        <v>0.9248044231074792</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1359193305074925</v>
+        <v>0.2400552385749412</v>
       </c>
       <c r="H11" t="n">
-        <v>1.180152648055174</v>
+        <v>1.412723217235351</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5962884388621861</v>
+        <v>1.308238655896267</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1593283793843855</v>
+        <v>0.1742464417249913</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3778084720953172</v>
+        <v>0.7412425488106293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7130776478785144</v>
+        <v>0.3151306950035337</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3686723891309092</v>
+        <v>0.489954322947498</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007069875328008</v>
+        <v>1.012486528606514</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3843675359932669</v>
+        <v>0.5108126928206417</v>
       </c>
       <c r="P11" t="n">
-        <v>189.9913874545341</v>
+        <v>188.8537724427883</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.3468391672768</v>
+        <v>302.2092241555309</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_10</t>
+          <t>model_34_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9787672788601862</v>
+        <v>0.964036380520816</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8220808290487247</v>
+        <v>0.7886409707888377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7400056437652713</v>
+        <v>0.7909353359464525</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9146582667844813</v>
+        <v>0.9744714172211325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8685312774299895</v>
+        <v>0.9248794223975974</v>
       </c>
       <c r="G12" t="n">
-        <v>0.141983304029626</v>
+        <v>0.2404888890545446</v>
       </c>
       <c r="H12" t="n">
-        <v>1.18974631539363</v>
+        <v>1.413358801553884</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6391847094445958</v>
+        <v>1.307941266905207</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1720377351249398</v>
+        <v>0.17306521542341</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4056112222847678</v>
+        <v>0.7405032411643084</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7415727338048711</v>
+        <v>0.3363304100696158</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3768067197246169</v>
+        <v>0.490396665011646</v>
       </c>
       <c r="N12" t="n">
-        <v>1.007385294309501</v>
+        <v>1.012509085036238</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3928481618807345</v>
+        <v>0.5112738663022347</v>
       </c>
       <c r="P12" t="n">
-        <v>189.9040916110995</v>
+        <v>188.8501627797219</v>
       </c>
       <c r="Q12" t="n">
-        <v>303.2595433238422</v>
+        <v>302.2056144924645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_11</t>
+          <t>model_34_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.977882006163157</v>
+        <v>0.963952718880248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8206753175324442</v>
+        <v>0.7885236383225669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7239724004564518</v>
+        <v>0.7909927653999239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9087263844284779</v>
+        <v>0.9746654518390476</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8602053302150104</v>
+        <v>0.9249643445898383</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1479031266309662</v>
+        <v>0.2410483348302487</v>
       </c>
       <c r="H13" t="n">
-        <v>1.199144977374784</v>
+        <v>1.414143404296104</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6786017341608939</v>
+        <v>1.307581979253843</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1839956315386119</v>
+        <v>0.1717498019028098</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4312986828497529</v>
+        <v>0.7396661182266484</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7667578066192631</v>
+        <v>0.3598725784133611</v>
       </c>
       <c r="M13" t="n">
-        <v>0.384581755457752</v>
+        <v>0.4909667349528364</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007693215247597</v>
+        <v>1.012538184737305</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4009541969815719</v>
+        <v>0.5118682053010291</v>
       </c>
       <c r="P13" t="n">
-        <v>189.8223955386401</v>
+        <v>188.8455156122785</v>
       </c>
       <c r="Q13" t="n">
-        <v>303.1778472513827</v>
+        <v>302.2009673250211</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9770295713639419</v>
+        <v>0.9638452655308066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8193178790370406</v>
+        <v>0.7883788283874703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7092871081370165</v>
+        <v>0.7910611645464529</v>
       </c>
       <c r="E14" t="n">
-        <v>0.903173944257798</v>
+        <v>0.9748815592709352</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8525404133047257</v>
+        <v>0.9250603839868589</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1536033620584188</v>
+        <v>0.2417668758727409</v>
       </c>
       <c r="H14" t="n">
-        <v>1.208222174843978</v>
+        <v>1.415111748998883</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7147048805531673</v>
+        <v>1.30715406348543</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1951886222992778</v>
+        <v>0.1702847507647117</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4549467130117265</v>
+        <v>0.7387194071250709</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7890706135409781</v>
+        <v>0.3860219786847534</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3919226480549686</v>
+        <v>0.4916979518695811</v>
       </c>
       <c r="N14" t="n">
-        <v>1.007989714308194</v>
+        <v>1.012575559815372</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4086076065743946</v>
+        <v>0.5126305516357472</v>
       </c>
       <c r="P14" t="n">
-        <v>189.7467631402139</v>
+        <v>188.839562679918</v>
       </c>
       <c r="Q14" t="n">
-        <v>303.1022148529565</v>
+        <v>302.1950143926607</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_13</t>
+          <t>model_34_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9762174447316109</v>
+        <v>0.9637080278564393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8180213124626605</v>
+        <v>0.7882000876083262</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6958707438227401</v>
+        <v>0.7911432291070351</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8979997769623852</v>
+        <v>0.9751223016518287</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8455046227224968</v>
+        <v>0.9251692077597722</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1590340565883158</v>
+        <v>0.2426845848331568</v>
       </c>
       <c r="H15" t="n">
-        <v>1.216892321496997</v>
+        <v>1.416306989412045</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7476884231585359</v>
+        <v>1.306640654747412</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2056190645825672</v>
+        <v>0.16865269259792</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4766537438705515</v>
+        <v>0.737646673672666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8088853508675943</v>
+        <v>0.4150639732176915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3987907428568468</v>
+        <v>0.4926302719415006</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008272193136831</v>
+        <v>1.01262329465863</v>
       </c>
       <c r="O15" t="n">
-        <v>0.415768090390905</v>
+        <v>0.5136025625032969</v>
       </c>
       <c r="P15" t="n">
-        <v>189.6772738146369</v>
+        <v>188.8319853671626</v>
       </c>
       <c r="Q15" t="n">
-        <v>303.0327255273796</v>
+        <v>302.1874370799053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_14</t>
+          <t>model_34_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9754501188716711</v>
+        <v>0.9635335945159026</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8167937957696008</v>
+        <v>0.7879794239722947</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6836383163367431</v>
+        <v>0.7912422936732644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8931964440321259</v>
+        <v>0.9753907116647004</v>
       </c>
       <c r="F16" t="n">
-        <v>0.83906170320314</v>
+        <v>0.9252929399910571</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1641651681469436</v>
+        <v>0.2438510213845168</v>
       </c>
       <c r="H16" t="n">
-        <v>1.225100731275683</v>
+        <v>1.41778256816225</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7777613090537209</v>
+        <v>1.306020891312754</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2153019534487448</v>
+        <v>0.1668330680186072</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4965316312512328</v>
+        <v>0.7364269796656806</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8265095216028491</v>
+        <v>0.447319500747646</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4051730101412773</v>
+        <v>0.4938127391881631</v>
       </c>
       <c r="N16" t="n">
-        <v>1.008539089088114</v>
+        <v>1.012683967124903</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4224220640067483</v>
+        <v>0.5148353698286946</v>
       </c>
       <c r="P16" t="n">
-        <v>189.6137644702374</v>
+        <v>188.8223956165156</v>
       </c>
       <c r="Q16" t="n">
-        <v>302.96921618298</v>
+        <v>302.1778473292582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_15</t>
+          <t>model_34_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9747298682411414</v>
+        <v>0.9633126034732566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8156399048437002</v>
+        <v>0.787707033454496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6725012562737794</v>
+        <v>0.7913616254595792</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8887525117787144</v>
+        <v>0.9756899498301633</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8331726188153126</v>
+        <v>0.9254336733691835</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1689814874297455</v>
+        <v>0.245328789504261</v>
       </c>
       <c r="H17" t="n">
-        <v>1.232816805210359</v>
+        <v>1.419604044809013</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8051412822327755</v>
+        <v>1.305274332976456</v>
       </c>
       <c r="J17" t="n">
-        <v>0.22426033771304</v>
+        <v>0.1648044509967634</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5147008099729078</v>
+        <v>0.7350396963676979</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8422217637589711</v>
+        <v>0.4831338323227567</v>
       </c>
       <c r="M17" t="n">
-        <v>0.411073579094723</v>
+        <v>0.4953067630310139</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00878961104656</v>
+        <v>1.01276083357452</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4285738323964037</v>
+        <v>0.5163929973595912</v>
       </c>
       <c r="P17" t="n">
-        <v>189.5559322237901</v>
+        <v>188.8103119402706</v>
       </c>
       <c r="Q17" t="n">
-        <v>302.9113839365327</v>
+        <v>302.1657636530132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_16</t>
+          <t>model_34_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9740575706090773</v>
+        <v>0.9630337309114626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8145616203090558</v>
+        <v>0.7873708005822062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6623761686046162</v>
+        <v>0.7915072402660888</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8846527272063146</v>
+        <v>0.9760235898904525</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8277991599165958</v>
+        <v>0.9255946179412029</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1734771447910042</v>
+        <v>0.2471936116090676</v>
       </c>
       <c r="H18" t="n">
-        <v>1.240027298858569</v>
+        <v>1.421852435574225</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8300333657135118</v>
+        <v>1.304363343951273</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2325249654134719</v>
+        <v>0.1625426141604621</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5312791655634919</v>
+        <v>0.7334531806481448</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8562414033592866</v>
+        <v>0.5229072847952786</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4165058760581946</v>
+        <v>0.4971856912754706</v>
       </c>
       <c r="N18" t="n">
-        <v>1.009023453701191</v>
+        <v>1.012857832726448</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4342373934880153</v>
+        <v>0.5183519154693321</v>
       </c>
       <c r="P18" t="n">
-        <v>189.5034188371673</v>
+        <v>188.7951667934759</v>
       </c>
       <c r="Q18" t="n">
-        <v>302.8588705499099</v>
+        <v>302.1506185062185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_17</t>
+          <t>model_34_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9734328454235149</v>
+        <v>0.9626825366283815</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8135589176484823</v>
+        <v>0.7869557022689713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6531797715599112</v>
+        <v>0.791683577393729</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8808807414106158</v>
+        <v>0.9763959950307549</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8229028039602944</v>
+        <v>0.9257786514796196</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1776546849834543</v>
+        <v>0.2495420493971319</v>
       </c>
       <c r="H19" t="n">
-        <v>1.246732376166845</v>
+        <v>1.424628199906179</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8526423040692734</v>
+        <v>1.303260151275589</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2401287937957323</v>
+        <v>0.1600179782889959</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5463855489325029</v>
+        <v>0.7316390647822926</v>
       </c>
       <c r="L19" t="n">
-        <v>0.8687673678243215</v>
+        <v>0.5670673942927611</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4214910259821131</v>
+        <v>0.4995418394860753</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009240749417908</v>
+        <v>1.012979987259693</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4394347715648779</v>
+        <v>0.5208083697871615</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4558271697521</v>
+        <v>188.7762556866662</v>
       </c>
       <c r="Q19" t="n">
-        <v>302.8112788824947</v>
+        <v>302.1317073994088</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_18</t>
+          <t>model_34_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9728544200691467</v>
+        <v>0.9622416465709597</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8126303449687217</v>
+        <v>0.7864432871237237</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6448334318813986</v>
+        <v>0.7918999742048266</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8774166148772049</v>
+        <v>0.9768117084881106</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8184457002550595</v>
+        <v>0.925990246633021</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1815226179915186</v>
+        <v>0.2524902832412235</v>
       </c>
       <c r="H20" t="n">
-        <v>1.252941745952089</v>
+        <v>1.428054722341905</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8731614137130209</v>
+        <v>1.301906338948946</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2471120183042995</v>
+        <v>0.1571997435411102</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5601367381613139</v>
+        <v>0.7295532595088323</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8799754706006564</v>
+        <v>0.6160962681823307</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4260547124390465</v>
+        <v>0.5024841124266751</v>
       </c>
       <c r="N20" t="n">
-        <v>1.009441940845514</v>
+        <v>1.013133340323144</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4441927436024163</v>
+        <v>0.5238759013781872</v>
       </c>
       <c r="P20" t="n">
-        <v>189.4127500320162</v>
+        <v>188.7527650264403</v>
       </c>
       <c r="Q20" t="n">
-        <v>302.7682017447589</v>
+        <v>302.108216739183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_19</t>
+          <t>model_34_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9723208431461207</v>
+        <v>0.9616891066693686</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8117734887962812</v>
+        <v>0.7858107405507047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6372673963044697</v>
+        <v>0.7921646500325895</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8742429252856296</v>
+        <v>0.9772762439293357</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8143943653512078</v>
+        <v>0.9262339944533559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1850906493326892</v>
+        <v>0.256185120107376</v>
       </c>
       <c r="H21" t="n">
-        <v>1.258671547122658</v>
+        <v>1.432284564188292</v>
       </c>
       <c r="I21" t="n">
-        <v>0.891762179983196</v>
+        <v>1.300250485536077</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2535097600509473</v>
+        <v>0.1540505312678003</v>
       </c>
       <c r="K21" t="n">
-        <v>0.572636037387114</v>
+        <v>0.7271505084019385</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8900108960958366</v>
+        <v>0.6705191357632707</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4302216281554069</v>
+        <v>0.506147330435888</v>
       </c>
       <c r="N21" t="n">
-        <v>1.009627532818741</v>
+        <v>1.013325528115002</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4485370535475268</v>
+        <v>0.5276950701619589</v>
       </c>
       <c r="P21" t="n">
-        <v>189.3738191550399</v>
+        <v>188.7237099408247</v>
       </c>
       <c r="Q21" t="n">
-        <v>302.7292708677825</v>
+        <v>302.0791616535673</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_20</t>
+          <t>model_34_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9718299354798049</v>
+        <v>0.9609980345571253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.810985173371201</v>
+        <v>0.7850297562348235</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6304113671846576</v>
+        <v>0.7924905076669997</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8713412537650895</v>
+        <v>0.9777953565838422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8107148117026679</v>
+        <v>0.926515901951296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1883733511577652</v>
+        <v>0.2608063225040411</v>
       </c>
       <c r="H22" t="n">
-        <v>1.263943016000028</v>
+        <v>1.437507009904691</v>
       </c>
       <c r="I22" t="n">
-        <v>0.908617426552219</v>
+        <v>1.298211869162953</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2593591490621784</v>
+        <v>0.1505313252014314</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5839883060002957</v>
+        <v>0.724371597182192</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8990009043533597</v>
+        <v>0.7309260835508071</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4340199893527545</v>
+        <v>0.5106920035638322</v>
       </c>
       <c r="N22" t="n">
-        <v>1.009798283311372</v>
+        <v>1.013565901023609</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4524971188447372</v>
+        <v>0.53243321943373</v>
       </c>
       <c r="P22" t="n">
-        <v>189.3386587501036</v>
+        <v>188.6879544129865</v>
       </c>
       <c r="Q22" t="n">
-        <v>302.6941104628463</v>
+        <v>302.0434061257292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_21</t>
+          <t>model_34_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9713793510122295</v>
+        <v>0.9601350238033798</v>
       </c>
       <c r="C23" t="n">
-        <v>0.810261763428351</v>
+        <v>0.7840654376870103</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6242025100069083</v>
+        <v>0.7928922327000378</v>
       </c>
       <c r="E23" t="n">
-        <v>0.868691711798333</v>
+        <v>0.9783759876558109</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8073754811731864</v>
+        <v>0.9268430187752242</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1913864115671926</v>
+        <v>0.266577279388136</v>
       </c>
       <c r="H23" t="n">
-        <v>1.268780461618863</v>
+        <v>1.443955412474196</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9238816293165273</v>
+        <v>1.295698614467148</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2647002779788848</v>
+        <v>0.1465950690284103</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5942909081036556</v>
+        <v>0.7211470337391319</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9070626413948746</v>
+        <v>0.797966674697535</v>
       </c>
       <c r="M23" t="n">
-        <v>0.437477326917856</v>
+        <v>0.5163112233799843</v>
       </c>
       <c r="N23" t="n">
-        <v>1.009955008343572</v>
+        <v>1.013866078677085</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4561016424276603</v>
+        <v>0.5382916610708444</v>
       </c>
       <c r="P23" t="n">
-        <v>189.3069215948606</v>
+        <v>188.6441821969393</v>
       </c>
       <c r="Q23" t="n">
-        <v>302.6623733076032</v>
+        <v>301.999633909682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_22</t>
+          <t>model_34_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.970966812674371</v>
+        <v>0.9590589933097925</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8095994706042933</v>
+        <v>0.7828746890764007</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6185855185897814</v>
+        <v>0.7933899876495631</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8662757661453189</v>
+        <v>0.9790255587860704</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8043482511046987</v>
+        <v>0.9272243535290293</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1941450573320162</v>
+        <v>0.2737727002534191</v>
       </c>
       <c r="H24" t="n">
-        <v>1.273209216782914</v>
+        <v>1.451917953916236</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9376907560949088</v>
+        <v>1.29258458158054</v>
       </c>
       <c r="J24" t="n">
-        <v>0.269570507380951</v>
+        <v>0.1421914494242596</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6036306085602614</v>
+        <v>0.7173880155023998</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9142916366974374</v>
+        <v>0.8723475100691778</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4406189479947682</v>
+        <v>0.5232329311629946</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010098499939349</v>
+        <v>1.014240350153116</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4593770088178689</v>
+        <v>0.5455080402840878</v>
       </c>
       <c r="P24" t="n">
-        <v>189.2782993622291</v>
+        <v>188.5909141559784</v>
       </c>
       <c r="Q24" t="n">
-        <v>302.6337510749717</v>
+        <v>301.946365868721</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_23</t>
+          <t>model_34_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9705897234880587</v>
+        <v>0.9577190271676406</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8089942724287223</v>
+        <v>0.7814041424449384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6135042564026139</v>
+        <v>0.7940081702905988</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8640765299099771</v>
+        <v>0.9797530159473048</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8016052661366101</v>
+        <v>0.9276706660870174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1966666544572225</v>
+        <v>0.2827330600159657</v>
       </c>
       <c r="H25" t="n">
-        <v>1.277256179769639</v>
+        <v>1.46175150601207</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9501828160832579</v>
+        <v>1.288717134203168</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2740038790348572</v>
+        <v>0.1372598192036998</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6120933475590575</v>
+        <v>0.7129884767034338</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9207778321558276</v>
+        <v>0.9548640526554855</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4434711427558985</v>
+        <v>0.5317264898573003</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010229661395458</v>
+        <v>1.014706425332994</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4623506274148376</v>
+        <v>0.5543631873561004</v>
       </c>
       <c r="P25" t="n">
-        <v>189.2524901856648</v>
+        <v>188.5265041546137</v>
       </c>
       <c r="Q25" t="n">
-        <v>302.6079418984074</v>
+        <v>301.8819558673564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_7_24</t>
+          <t>model_34_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9702456029170372</v>
+        <v>0.9560524891373277</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8084422036856541</v>
+        <v>0.7795878077807872</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6089100629335543</v>
+        <v>0.7947795886115511</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8620764014868265</v>
+        <v>0.980567763472327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7991213961667454</v>
+        <v>0.9281956206463171</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1989677903001731</v>
+        <v>0.2938772074983709</v>
       </c>
       <c r="H26" t="n">
-        <v>1.280947865996579</v>
+        <v>1.473897344274701</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9614774390134648</v>
+        <v>1.283891020423549</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2780358754674685</v>
+        <v>0.1317364238333005</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6197566572404667</v>
+        <v>0.7078137221284249</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9266044340617674</v>
+        <v>1.04637273431221</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4460580570959045</v>
+        <v>0.5421044249020394</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010349355507117</v>
+        <v>1.015286090734843</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4650476720539485</v>
+        <v>0.5651829325809812</v>
       </c>
       <c r="P26" t="n">
-        <v>189.2292246502922</v>
+        <v>188.449186520917</v>
       </c>
       <c r="Q26" t="n">
-        <v>302.5846763630349</v>
+        <v>301.8046382336597</v>
       </c>
     </row>
   </sheetData>
